--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1027439.043960884</v>
+        <v>1022927.84734333</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30065382.42271988</v>
+        <v>30065382.42271987</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7380604.917431152</v>
+        <v>7380604.91743115</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>337.5088007876612</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H11" t="n">
         <v>274.7425724320338</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.49486008622742</v>
+        <v>58.49486008622741</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>72.37432714071174</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523149</v>
       </c>
       <c r="T12" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U12" t="n">
         <v>182.8512659117115</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I13" t="n">
-        <v>72.2334557076878</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.890442023638968</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T13" t="n">
         <v>237.135521820955</v>
       </c>
       <c r="U13" t="n">
-        <v>195.395741782781</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>236.4742241935503</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7653954907347</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>192.4592919514869</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.49486008622742</v>
+        <v>58.49486008622741</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523149</v>
       </c>
       <c r="T15" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U15" t="n">
         <v>182.8512659117115</v>
@@ -1776,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>164.9192412041925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7119583655305</v>
@@ -1785,7 +1785,7 @@
         <v>134.5125973793844</v>
       </c>
       <c r="I16" t="n">
-        <v>72.2334557076878</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.055145824462</v>
       </c>
       <c r="T16" t="n">
-        <v>237.135521820955</v>
+        <v>201.6058353200928</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>298.1719517951134</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>175.6903683674094</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T18" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U18" t="n">
         <v>182.8512659117115</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>32.44063230189676</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7119583655305</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T19" t="n">
-        <v>52.12698807324333</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U19" t="n">
         <v>277.3344708341617</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H20" t="n">
-        <v>188.3443885175791</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.49486008622741</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U20" t="n">
         <v>255.6139801279633</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.87758730683163</v>
       </c>
     </row>
     <row r="21">
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523149</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U21" t="n">
         <v>182.8512659117115</v>
@@ -2241,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>41.60910723975508</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>134.5125973793844</v>
       </c>
       <c r="I22" t="n">
-        <v>72.2334557076878</v>
+        <v>72.23345570768778</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.055145824462</v>
@@ -2295,16 +2295,16 @@
         <v>237.135521820955</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3344708341617</v>
+        <v>140.2114285931216</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>202.7331776139852</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>333.6804519331084</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T24" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U24" t="n">
         <v>182.8512659117115</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H25" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>224.6124004914543</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>75.0802531438428</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2566,10 +2566,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>312.2712528727935</v>
       </c>
       <c r="G26" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>389.846356785386</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T27" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U27" t="n">
         <v>182.8512659117115</v>
@@ -2715,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>163.7119583655305</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5125973793844</v>
+        <v>108.2299586463178</v>
       </c>
       <c r="I28" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>6.890442023638968</v>
       </c>
       <c r="S28" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.135521820955</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.3385373237441</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>346.9505930816712</v>
       </c>
       <c r="G29" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.6167886372453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T30" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U30" t="n">
         <v>182.8512659117115</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>20.32825306559736</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,19 +3000,19 @@
         <v>6.890442023638968</v>
       </c>
       <c r="S31" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.135521820955</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1232441595158</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>13.80087370822975</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.8463567853864</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T33" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U33" t="n">
         <v>182.8512659117115</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>225.8284917338661</v>
       </c>
       <c r="X34" t="n">
-        <v>115.0885347012768</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>115.1037843533527</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>368.9528675733774</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T36" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U36" t="n">
         <v>182.8512659117115</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>45.23016662430843</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>104.7363314409774</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I37" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.135521820955</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>307.0481935289148</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>390.3006929155518</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T39" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U39" t="n">
         <v>182.8512659117115</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7119583655305</v>
+        <v>136.2253800731667</v>
       </c>
       <c r="H40" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S40" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>10.33610561706476</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>372.1933674107515</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>402.6562818309035</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3872,7 +3872,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T42" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U42" t="n">
         <v>182.8512659117115</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>153.6315895399878</v>
+        <v>35.67824642792477</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I43" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.135521820955</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>201.6451320550691</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>96.92374450260061</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U44" t="n">
         <v>255.6139801279633</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4109,7 +4109,7 @@
         <v>60.9599276152315</v>
       </c>
       <c r="T45" t="n">
-        <v>136.2185294778021</v>
+        <v>136.218529477802</v>
       </c>
       <c r="U45" t="n">
         <v>182.8512659117115</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>161.6216114619331</v>
+        <v>137.7852619570564</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3344708341617</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1087.592172351573</v>
+        <v>1149.026130663621</v>
       </c>
       <c r="C11" t="n">
-        <v>660.6914423648732</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="D11" t="n">
-        <v>660.6914423648732</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="E11" t="n">
-        <v>660.6914423648732</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="F11" t="n">
-        <v>319.7734617712759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="G11" t="n">
         <v>319.7734617712759</v>
@@ -5056,7 +5056,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O11" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.71019061354</v>
       </c>
       <c r="P11" t="n">
         <v>1850.574984537459</v>
@@ -5071,22 +5071,22 @@
         <v>2053.699874737618</v>
       </c>
       <c r="T11" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U11" t="n">
-        <v>1841.472936924977</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="V11" t="n">
-        <v>1483.983522051226</v>
+        <v>1980.594493787404</v>
       </c>
       <c r="W11" t="n">
-        <v>1087.592172351573</v>
+        <v>1980.594493787404</v>
       </c>
       <c r="X11" t="n">
-        <v>1087.592172351573</v>
+        <v>1568.874494955151</v>
       </c>
       <c r="Y11" t="n">
-        <v>1087.592172351573</v>
+        <v>1568.874494955151</v>
       </c>
     </row>
     <row r="12">
@@ -5117,37 +5117,37 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I12" t="n">
-        <v>85.57985128796491</v>
+        <v>62.12254544355309</v>
       </c>
       <c r="J12" t="n">
-        <v>163.6254406849211</v>
+        <v>140.1681348405093</v>
       </c>
       <c r="K12" t="n">
-        <v>460.8504995762056</v>
+        <v>566.3059998611106</v>
       </c>
       <c r="L12" t="n">
-        <v>664.817310677601</v>
+        <v>770.2728109625061</v>
       </c>
       <c r="M12" t="n">
-        <v>905.982449817964</v>
+        <v>1011.437950102869</v>
       </c>
       <c r="N12" t="n">
-        <v>1155.871917380913</v>
+        <v>1261.327417665819</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.861243611046</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.293390055576</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.790211669508</v>
+        <v>1774.245711954414</v>
       </c>
       <c r="R12" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S12" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T12" t="n">
         <v>1616.33768667407</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>453.2887784859367</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="C13" t="n">
-        <v>453.2887784859367</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="D13" t="n">
-        <v>453.2887784859367</v>
+        <v>754.5257034808003</v>
       </c>
       <c r="E13" t="n">
-        <v>287.0805726387903</v>
+        <v>588.3174976336538</v>
       </c>
       <c r="F13" t="n">
-        <v>115.2187984133507</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="G13" t="n">
-        <v>115.2187984133507</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H13" t="n">
         <v>115.2187984133507</v>
@@ -5199,22 +5199,22 @@
         <v>42.25571183992867</v>
       </c>
       <c r="J13" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693922</v>
       </c>
       <c r="K13" t="n">
-        <v>242.2552078854987</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L13" t="n">
-        <v>726.8275848729597</v>
+        <v>272.516974633574</v>
       </c>
       <c r="M13" t="n">
-        <v>1249.742018892077</v>
+        <v>795.4314086526913</v>
       </c>
       <c r="N13" t="n">
-        <v>1362.88786854302</v>
+        <v>1037.462734774884</v>
       </c>
       <c r="O13" t="n">
-        <v>1829.128892041369</v>
+        <v>1516.372687468062</v>
       </c>
       <c r="P13" t="n">
         <v>1912.631931977722</v>
@@ -5226,25 +5226,25 @@
         <v>2105.825549548314</v>
       </c>
       <c r="S13" t="n">
-        <v>2105.825549548314</v>
+        <v>1951.224392149867</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.294719426137</v>
+        <v>1711.69356202769</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.925283281913</v>
+        <v>1431.557732902274</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.213815889942</v>
+        <v>1192.694880181517</v>
       </c>
       <c r="W13" t="n">
-        <v>1112.361412062455</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="X13" t="n">
-        <v>869.7975155082604</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.4547471980025</v>
+        <v>917.8424763540296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.210459863867</v>
+        <v>1064.135157759696</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.210459863867</v>
+        <v>1064.135157759696</v>
       </c>
       <c r="D14" t="n">
-        <v>1272.917839048868</v>
+        <v>1064.135157759696</v>
       </c>
       <c r="E14" t="n">
-        <v>846.9408991967251</v>
+        <v>1064.135157759696</v>
       </c>
       <c r="F14" t="n">
-        <v>421.8167173861253</v>
+        <v>639.0109759490963</v>
       </c>
       <c r="G14" t="n">
-        <v>42.25571183992867</v>
+        <v>236.6590370434508</v>
       </c>
       <c r="H14" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I14" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372497</v>
       </c>
       <c r="J14" t="n">
-        <v>219.309993198372</v>
+        <v>219.3099931983718</v>
       </c>
       <c r="K14" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L14" t="n">
         <v>701.0562546154872</v>
@@ -5308,22 +5308,22 @@
         <v>2053.699874737618</v>
       </c>
       <c r="T14" t="n">
-        <v>2053.699874737618</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U14" t="n">
-        <v>2053.699874737618</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="V14" t="n">
-        <v>1696.210459863867</v>
+        <v>1483.983522051226</v>
       </c>
       <c r="W14" t="n">
-        <v>1696.210459863867</v>
+        <v>1483.983522051226</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.210459863867</v>
+        <v>1483.983522051226</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.210459863867</v>
+        <v>1483.983522051226</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>895.3254245933093</v>
+        <v>598.0476779507782</v>
       </c>
       <c r="C15" t="n">
-        <v>777.8195211108141</v>
+        <v>480.5417744682829</v>
       </c>
       <c r="D15" t="n">
-        <v>673.9795626260991</v>
+        <v>376.701815983568</v>
       </c>
       <c r="E15" t="n">
-        <v>569.2776288990364</v>
+        <v>271.9998822565052</v>
       </c>
       <c r="F15" t="n">
-        <v>475.6317985819405</v>
+        <v>178.3540519394094</v>
       </c>
       <c r="G15" t="n">
-        <v>382.64123160691</v>
+        <v>85.36348496437886</v>
       </c>
       <c r="H15" t="n">
-        <v>339.5334584824598</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I15" t="n">
-        <v>359.4002920860842</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J15" t="n">
-        <v>437.4458814830404</v>
+        <v>163.6254406849212</v>
       </c>
       <c r="K15" t="n">
-        <v>583.5383836988228</v>
+        <v>309.7179429007036</v>
       </c>
       <c r="L15" t="n">
-        <v>1067.550557605038</v>
+        <v>513.6847540020991</v>
       </c>
       <c r="M15" t="n">
-        <v>1308.715696745401</v>
+        <v>754.8498931424622</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.60516430835</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O15" t="n">
-        <v>1783.594490538483</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P15" t="n">
-        <v>1961.026636983012</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q15" t="n">
-        <v>2071.523458596945</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R15" t="n">
-        <v>2112.785591996434</v>
+        <v>1815.507845353902</v>
       </c>
       <c r="S15" t="n">
-        <v>2051.209907536604</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T15" t="n">
-        <v>1913.615433316601</v>
+        <v>1616.33768667407</v>
       </c>
       <c r="U15" t="n">
-        <v>1728.917184920933</v>
+        <v>1431.639438278402</v>
       </c>
       <c r="V15" t="n">
-        <v>1523.9440460602</v>
+        <v>1226.666299417668</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.422668893417</v>
+        <v>1030.144922250886</v>
       </c>
       <c r="X15" t="n">
-        <v>1163.94532266008</v>
+        <v>866.6675760175485</v>
       </c>
       <c r="Y15" t="n">
-        <v>1024.252434013372</v>
+        <v>726.9746873708409</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>912.5657942540371</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="C16" t="n">
-        <v>912.5657942540371</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="D16" t="n">
-        <v>749.2490213808078</v>
+        <v>754.5257034808003</v>
       </c>
       <c r="E16" t="n">
-        <v>583.0408155336613</v>
+        <v>588.3174976336538</v>
       </c>
       <c r="F16" t="n">
         <v>416.4557234082143</v>
@@ -5436,19 +5436,19 @@
         <v>42.25571183992867</v>
       </c>
       <c r="J16" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693922</v>
       </c>
       <c r="K16" t="n">
-        <v>489.5378169995208</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L16" t="n">
-        <v>974.1101939869818</v>
+        <v>467.4992302141496</v>
       </c>
       <c r="M16" t="n">
-        <v>1368.11598853647</v>
+        <v>990.4136642332669</v>
       </c>
       <c r="N16" t="n">
-        <v>1879.294761029294</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O16" t="n">
         <v>1980.502389419269</v>
@@ -5460,28 +5460,28 @@
         <v>2112.785591996434</v>
       </c>
       <c r="R16" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T16" t="n">
-        <v>1711.69356202769</v>
+        <v>1754.542176698903</v>
       </c>
       <c r="U16" t="n">
-        <v>1711.69356202769</v>
+        <v>1474.406347573488</v>
       </c>
       <c r="V16" t="n">
-        <v>1429.982094635719</v>
+        <v>1192.694880181517</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.129690808232</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="X16" t="n">
-        <v>912.5657942540371</v>
+        <v>917.8424763540296</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.5657942540371</v>
+        <v>917.8424763540296</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1068.99029106001</v>
+        <v>620.9572514633097</v>
       </c>
       <c r="C17" t="n">
-        <v>1068.99029106001</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="D17" t="n">
-        <v>645.6976702450099</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="E17" t="n">
-        <v>219.7207303928675</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="F17" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="G17" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H17" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I17" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J17" t="n">
         <v>219.309993198372</v>
       </c>
       <c r="K17" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L17" t="n">
         <v>701.0562546154872</v>
@@ -5530,7 +5530,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O17" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.71019061354</v>
       </c>
       <c r="P17" t="n">
         <v>1850.574984537459</v>
@@ -5542,25 +5542,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S17" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T17" t="n">
-        <v>1900.558654183792</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U17" t="n">
-        <v>1900.558654183792</v>
+        <v>1795.503935214423</v>
       </c>
       <c r="V17" t="n">
-        <v>1900.558654183792</v>
+        <v>1438.014520340672</v>
       </c>
       <c r="W17" t="n">
-        <v>1900.558654183792</v>
+        <v>1438.014520340672</v>
       </c>
       <c r="X17" t="n">
-        <v>1488.83865535154</v>
+        <v>1026.294521508419</v>
       </c>
       <c r="Y17" t="n">
-        <v>1488.83865535154</v>
+        <v>620.9572514633097</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I18" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355309</v>
       </c>
       <c r="J18" t="n">
-        <v>140.1681348405093</v>
+        <v>420.2134976453286</v>
       </c>
       <c r="K18" t="n">
-        <v>286.2606370562917</v>
+        <v>566.3059998611111</v>
       </c>
       <c r="L18" t="n">
-        <v>490.2274481576871</v>
+        <v>770.2728109625066</v>
       </c>
       <c r="M18" t="n">
-        <v>731.3925872980502</v>
+        <v>1011.43795010287</v>
       </c>
       <c r="N18" t="n">
-        <v>981.2820548609996</v>
+        <v>1261.327417665819</v>
       </c>
       <c r="O18" t="n">
-        <v>1206.271381091132</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P18" t="n">
-        <v>1383.703527535662</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q18" t="n">
         <v>1774.245711954414</v>
@@ -5621,7 +5621,7 @@
         <v>1815.507845353902</v>
       </c>
       <c r="S18" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T18" t="n">
         <v>1616.33768667407</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.5257034808004</v>
+        <v>449.2240388646757</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5257034808004</v>
+        <v>449.2240388646757</v>
       </c>
       <c r="D19" t="n">
-        <v>754.5257034808004</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="E19" t="n">
-        <v>588.3174976336539</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="F19" t="n">
         <v>416.4557234082143</v>
@@ -5682,13 +5682,13 @@
         <v>974.1101939869818</v>
       </c>
       <c r="M19" t="n">
-        <v>1088.703979774531</v>
+        <v>1497.024628006099</v>
       </c>
       <c r="N19" t="n">
-        <v>1201.849829425475</v>
+        <v>1879.294761029294</v>
       </c>
       <c r="O19" t="n">
-        <v>1680.759782118653</v>
+        <v>1980.502389419269</v>
       </c>
       <c r="P19" t="n">
         <v>2064.005429355621</v>
@@ -5700,25 +5700,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.785591996434</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T19" t="n">
-        <v>2060.132068690127</v>
+        <v>1718.65360447581</v>
       </c>
       <c r="U19" t="n">
-        <v>1779.996239564711</v>
+        <v>1438.517775350394</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.28477217274</v>
+        <v>1156.806307958423</v>
       </c>
       <c r="W19" t="n">
-        <v>1223.432368345253</v>
+        <v>881.9539041309363</v>
       </c>
       <c r="X19" t="n">
-        <v>980.8684717910584</v>
+        <v>639.3900075767414</v>
       </c>
       <c r="Y19" t="n">
-        <v>754.5257034808004</v>
+        <v>639.3900075767414</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1085.380238767235</v>
+        <v>1145.418021491921</v>
       </c>
       <c r="C20" t="n">
-        <v>658.4795087805348</v>
+        <v>1145.418021491921</v>
       </c>
       <c r="D20" t="n">
-        <v>658.4795087805348</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="E20" t="n">
-        <v>232.5025689283924</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="F20" t="n">
-        <v>232.5025689283924</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="G20" t="n">
-        <v>232.5025689283924</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H20" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I20" t="n">
-        <v>83.13735652372554</v>
+        <v>83.13735652372543</v>
       </c>
       <c r="J20" t="n">
-        <v>219.3099931983723</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K20" t="n">
         <v>431.6424856740996</v>
       </c>
       <c r="L20" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154877</v>
       </c>
       <c r="M20" t="n">
         <v>1005.977266623261</v>
@@ -5767,7 +5767,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O20" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.71019061354</v>
       </c>
       <c r="P20" t="n">
         <v>1850.574984537459</v>
@@ -5776,28 +5776,28 @@
         <v>2025.128259099849</v>
       </c>
       <c r="R20" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S20" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T20" t="n">
-        <v>2112.785591996433</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U20" t="n">
-        <v>1854.589652473238</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="V20" t="n">
-        <v>1497.100237599487</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="W20" t="n">
-        <v>1497.100237599487</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="X20" t="n">
-        <v>1085.380238767235</v>
+        <v>1171.556998569529</v>
       </c>
       <c r="Y20" t="n">
-        <v>1085.380238767235</v>
+        <v>1145.418021491921</v>
       </c>
     </row>
     <row r="21">
@@ -5822,43 +5822,43 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G21" t="n">
-        <v>85.36348496437884</v>
+        <v>85.36348496437886</v>
       </c>
       <c r="H21" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I21" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355309</v>
       </c>
       <c r="J21" t="n">
         <v>140.1681348405093</v>
       </c>
       <c r="K21" t="n">
-        <v>286.2606370562917</v>
+        <v>566.3059998611106</v>
       </c>
       <c r="L21" t="n">
-        <v>490.2274481576871</v>
+        <v>770.2728109625061</v>
       </c>
       <c r="M21" t="n">
-        <v>731.3925872980502</v>
+        <v>1011.437950102869</v>
       </c>
       <c r="N21" t="n">
-        <v>981.2820548609996</v>
+        <v>1261.327417665819</v>
       </c>
       <c r="O21" t="n">
-        <v>1206.271381091132</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P21" t="n">
-        <v>1558.293390055576</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q21" t="n">
-        <v>1668.790211669508</v>
+        <v>1774.245711954414</v>
       </c>
       <c r="R21" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S21" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T21" t="n">
         <v>1616.33768667407</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>458.4851246604922</v>
+        <v>917.953265249674</v>
       </c>
       <c r="C22" t="n">
-        <v>458.4851246604922</v>
+        <v>745.98070212859</v>
       </c>
       <c r="D22" t="n">
-        <v>458.4851246604922</v>
+        <v>582.6639292553607</v>
       </c>
       <c r="E22" t="n">
         <v>416.4557234082143</v>
@@ -5910,52 +5910,52 @@
         <v>42.25571183992867</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1988195496154</v>
+        <v>161.5117779951601</v>
       </c>
       <c r="K22" t="n">
-        <v>207.942249439954</v>
+        <v>489.5378169995208</v>
       </c>
       <c r="L22" t="n">
-        <v>316.1257328362501</v>
+        <v>974.1101939869819</v>
       </c>
       <c r="M22" t="n">
-        <v>839.0401668553673</v>
+        <v>1388.446587075147</v>
       </c>
       <c r="N22" t="n">
-        <v>1350.218939348191</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O22" t="n">
-        <v>1829.128892041369</v>
+        <v>1980.502389419269</v>
       </c>
       <c r="P22" t="n">
-        <v>1912.631931977721</v>
+        <v>2064.005429355621</v>
       </c>
       <c r="Q22" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="R22" t="n">
-        <v>2105.825549548313</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S22" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T22" t="n">
-        <v>1711.69356202769</v>
+        <v>1718.65360447581</v>
       </c>
       <c r="U22" t="n">
-        <v>1431.557732902274</v>
+        <v>1577.025898826192</v>
       </c>
       <c r="V22" t="n">
-        <v>1149.846265510303</v>
+        <v>1577.025898826192</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9938616828158</v>
+        <v>1577.025898826192</v>
       </c>
       <c r="X22" t="n">
-        <v>874.9938616828158</v>
+        <v>1334.462002271998</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.6510933725579</v>
+        <v>1108.11923396174</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1375.655570922892</v>
+        <v>1657.308525037965</v>
       </c>
       <c r="C23" t="n">
-        <v>1170.874583434018</v>
+        <v>1230.407795051265</v>
       </c>
       <c r="D23" t="n">
-        <v>1170.874583434018</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E23" t="n">
-        <v>744.8976435818757</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F23" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="G23" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="H23" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="I23" t="n">
-        <v>83.13735652372497</v>
+        <v>83.13735652372554</v>
       </c>
       <c r="J23" t="n">
-        <v>219.3099931983718</v>
+        <v>219.3099931983724</v>
       </c>
       <c r="K23" t="n">
-        <v>431.6424856740991</v>
+        <v>431.6424856740996</v>
       </c>
       <c r="L23" t="n">
-        <v>701.056254615487</v>
+        <v>701.0562546154875</v>
       </c>
       <c r="M23" t="n">
         <v>1005.977266623261</v>
@@ -6013,28 +6013,28 @@
         <v>2025.128259099849</v>
       </c>
       <c r="R23" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S23" t="n">
-        <v>2053.699874737617</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T23" t="n">
-        <v>2053.699874737617</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U23" t="n">
-        <v>1795.503935214422</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="V23" t="n">
-        <v>1795.503935214422</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="W23" t="n">
-        <v>1795.503935214422</v>
+        <v>1657.308525037965</v>
       </c>
       <c r="X23" t="n">
-        <v>1795.503935214422</v>
+        <v>1657.308525037965</v>
       </c>
       <c r="Y23" t="n">
-        <v>1795.503935214422</v>
+        <v>1657.308525037965</v>
       </c>
     </row>
     <row r="24">
@@ -6059,43 +6059,43 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G24" t="n">
-        <v>85.36348496437884</v>
+        <v>85.36348496437887</v>
       </c>
       <c r="H24" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="I24" t="n">
-        <v>62.12254544355308</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J24" t="n">
-        <v>140.1681348405093</v>
+        <v>314.7579973604228</v>
       </c>
       <c r="K24" t="n">
-        <v>286.2606370562917</v>
+        <v>460.8504995762053</v>
       </c>
       <c r="L24" t="n">
-        <v>490.2274481576871</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M24" t="n">
-        <v>1011.43795010287</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N24" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P24" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R24" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S24" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T24" t="n">
         <v>1616.33768667407</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.4163583184687</v>
+        <v>579.7724962814436</v>
       </c>
       <c r="C25" t="n">
-        <v>341.4437951973847</v>
+        <v>579.7724962814436</v>
       </c>
       <c r="D25" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="E25" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="F25" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="G25" t="n">
-        <v>178.1270223241554</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H25" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I25" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992868</v>
       </c>
       <c r="J25" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693921</v>
       </c>
       <c r="K25" t="n">
-        <v>242.2552078854987</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L25" t="n">
-        <v>563.0636738724093</v>
+        <v>467.49923021415</v>
       </c>
       <c r="M25" t="n">
-        <v>677.6574596599589</v>
+        <v>990.4136642332674</v>
       </c>
       <c r="N25" t="n">
-        <v>1188.836232152782</v>
+        <v>1501.592436726091</v>
       </c>
       <c r="O25" t="n">
-        <v>1667.746184845961</v>
+        <v>1980.502389419269</v>
       </c>
       <c r="P25" t="n">
-        <v>2064.00542935562</v>
+        <v>2064.005429355621</v>
       </c>
       <c r="Q25" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="R25" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S25" t="n">
-        <v>1958.184434597987</v>
+        <v>1958.184434597988</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.65360447581</v>
+        <v>1718.653604475811</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.517775350394</v>
+        <v>1438.517775350395</v>
       </c>
       <c r="V25" t="n">
-        <v>1156.806307958423</v>
+        <v>1156.806307958424</v>
       </c>
       <c r="W25" t="n">
-        <v>929.9250953407923</v>
+        <v>881.9539041309367</v>
       </c>
       <c r="X25" t="n">
-        <v>929.9250953407923</v>
+        <v>806.1152645917016</v>
       </c>
       <c r="Y25" t="n">
-        <v>703.5823270305343</v>
+        <v>579.7724962814436</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1719.001393223316</v>
+        <v>1633.851510446087</v>
       </c>
       <c r="C26" t="n">
-        <v>1719.001393223316</v>
+        <v>1206.950780459387</v>
       </c>
       <c r="D26" t="n">
-        <v>1295.708772408316</v>
+        <v>783.6581596443878</v>
       </c>
       <c r="E26" t="n">
-        <v>869.7318325561739</v>
+        <v>357.6812197922453</v>
       </c>
       <c r="F26" t="n">
-        <v>444.6076507455741</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G26" t="n">
         <v>42.25571183992867</v>
@@ -6226,13 +6226,13 @@
         <v>83.13735652372546</v>
       </c>
       <c r="J26" t="n">
-        <v>219.3099931983724</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K26" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L26" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M26" t="n">
         <v>1005.977266623261</v>
@@ -6241,37 +6241,37 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O26" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P26" t="n">
         <v>1850.574984537459</v>
       </c>
       <c r="Q26" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R26" t="n">
         <v>2112.785591996433</v>
       </c>
       <c r="S26" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="T26" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="U26" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="W26" t="n">
-        <v>1719.001393223316</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="X26" t="n">
-        <v>1719.001393223316</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="Y26" t="n">
-        <v>1719.001393223316</v>
+        <v>2053.699874737617</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I27" t="n">
-        <v>62.12254544355308</v>
+        <v>85.57985128796493</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1681348405093</v>
+        <v>163.6254406849211</v>
       </c>
       <c r="K27" t="n">
-        <v>286.2606370562917</v>
+        <v>309.7179429007036</v>
       </c>
       <c r="L27" t="n">
-        <v>490.2274481576871</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M27" t="n">
-        <v>731.3925872980502</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N27" t="n">
-        <v>981.2820548609996</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O27" t="n">
-        <v>1206.271381091132</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P27" t="n">
-        <v>1558.293390055576</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q27" t="n">
         <v>1668.790211669508</v>
@@ -6332,7 +6332,7 @@
         <v>1815.507845353902</v>
       </c>
       <c r="S27" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T27" t="n">
         <v>1616.33768667407</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.6639292553608</v>
+        <v>652.233852896715</v>
       </c>
       <c r="C28" t="n">
-        <v>582.6639292553608</v>
+        <v>480.261289775631</v>
       </c>
       <c r="D28" t="n">
-        <v>582.6639292553608</v>
+        <v>316.9445169024017</v>
       </c>
       <c r="E28" t="n">
-        <v>416.4557234082143</v>
+        <v>316.9445169024017</v>
       </c>
       <c r="F28" t="n">
-        <v>416.4557234082143</v>
+        <v>316.9445169024017</v>
       </c>
       <c r="G28" t="n">
-        <v>251.0901088975774</v>
+        <v>151.5789023917648</v>
       </c>
       <c r="H28" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I28" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="J28" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693919</v>
       </c>
       <c r="K28" t="n">
-        <v>489.5378169995208</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L28" t="n">
-        <v>974.1101939869818</v>
+        <v>648.9058682247389</v>
       </c>
       <c r="M28" t="n">
-        <v>1302.019209427143</v>
+        <v>1171.820302243856</v>
       </c>
       <c r="N28" t="n">
-        <v>1415.165059078087</v>
+        <v>1682.99907473668</v>
       </c>
       <c r="O28" t="n">
-        <v>1516.372687468061</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P28" t="n">
-        <v>1912.631931977721</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q28" t="n">
         <v>2112.785591996433</v>
@@ -6411,25 +6411,25 @@
         <v>2105.825549548313</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.224392149867</v>
+        <v>2105.825549548313</v>
       </c>
       <c r="T28" t="n">
-        <v>1711.69356202769</v>
+        <v>1866.294719426136</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.69356202769</v>
+        <v>1586.15889030072</v>
       </c>
       <c r="V28" t="n">
-        <v>1429.982094635719</v>
+        <v>1586.15889030072</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.129690808232</v>
+        <v>1311.306486473233</v>
       </c>
       <c r="X28" t="n">
-        <v>912.5657942540366</v>
+        <v>1068.742589919039</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.8298979674264</v>
+        <v>842.3998216087807</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1147.249582487521</v>
+        <v>1245.588526205712</v>
       </c>
       <c r="C29" t="n">
-        <v>1147.249582487521</v>
+        <v>818.6877962190117</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.249582487521</v>
+        <v>818.6877962190117</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.249582487521</v>
+        <v>392.7108563668693</v>
       </c>
       <c r="F29" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G29" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H29" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I29" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372546</v>
       </c>
       <c r="J29" t="n">
         <v>219.3099931983722</v>
       </c>
       <c r="K29" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740995</v>
       </c>
       <c r="L29" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M29" t="n">
         <v>1005.977266623261</v>
@@ -6484,31 +6484,31 @@
         <v>1850.574984537459</v>
       </c>
       <c r="Q29" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R29" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S29" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="T29" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="U29" t="n">
-        <v>1854.589652473238</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="V29" t="n">
-        <v>1854.589652473238</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="W29" t="n">
-        <v>1854.589652473238</v>
+        <v>1657.308525037964</v>
       </c>
       <c r="X29" t="n">
-        <v>1854.589652473238</v>
+        <v>1245.588526205712</v>
       </c>
       <c r="Y29" t="n">
-        <v>1567.097946779051</v>
+        <v>1245.588526205712</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G30" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H30" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I30" t="n">
-        <v>85.57985128796491</v>
+        <v>85.57985128796493</v>
       </c>
       <c r="J30" t="n">
         <v>163.6254406849211</v>
@@ -6557,19 +6557,19 @@
         <v>1004.739360705411</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.316743895952</v>
+        <v>1229.728686935544</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.748890340481</v>
+        <v>1407.160833380074</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R30" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S30" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T30" t="n">
         <v>1616.33768667407</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>851.4863383910547</v>
+        <v>370.5223855047438</v>
       </c>
       <c r="C31" t="n">
-        <v>679.5137752699707</v>
+        <v>370.5223855047438</v>
       </c>
       <c r="D31" t="n">
-        <v>516.1970023967414</v>
+        <v>370.5223855047438</v>
       </c>
       <c r="E31" t="n">
         <v>349.988796549595</v>
@@ -6624,49 +6624,49 @@
         <v>83.59006134693919</v>
       </c>
       <c r="K31" t="n">
-        <v>207.9422494399544</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L31" t="n">
-        <v>316.1257328362504</v>
+        <v>648.9058682247389</v>
       </c>
       <c r="M31" t="n">
-        <v>839.0401668553677</v>
+        <v>990.4136642332664</v>
       </c>
       <c r="N31" t="n">
-        <v>1350.218939348191</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O31" t="n">
-        <v>1829.128892041369</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P31" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q31" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R31" t="n">
-        <v>2105.825549548314</v>
+        <v>2105.825549548313</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.224392149867</v>
+        <v>2105.825549548313</v>
       </c>
       <c r="T31" t="n">
-        <v>1711.69356202769</v>
+        <v>1866.294719426136</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.69356202769</v>
+        <v>1586.15889030072</v>
       </c>
       <c r="V31" t="n">
-        <v>1510.558971967573</v>
+        <v>1304.447422908749</v>
       </c>
       <c r="W31" t="n">
-        <v>1510.558971967573</v>
+        <v>1029.595019081262</v>
       </c>
       <c r="X31" t="n">
-        <v>1267.995075413378</v>
+        <v>787.0311225270674</v>
       </c>
       <c r="Y31" t="n">
-        <v>1041.65230710312</v>
+        <v>560.6883542168094</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1719.001393223316</v>
+        <v>465.5483326549284</v>
       </c>
       <c r="C32" t="n">
-        <v>1719.001393223316</v>
+        <v>465.5483326549284</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.708772408316</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="E32" t="n">
-        <v>869.7318325561739</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="F32" t="n">
-        <v>444.6076507455741</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G32" t="n">
         <v>42.25571183992867</v>
@@ -6700,13 +6700,13 @@
         <v>83.13735652372546</v>
       </c>
       <c r="J32" t="n">
-        <v>219.3099931983722</v>
+        <v>219.309993198372</v>
       </c>
       <c r="K32" t="n">
-        <v>431.6424856740995</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L32" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M32" t="n">
         <v>1005.977266623261</v>
@@ -6715,37 +6715,37 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O32" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P32" t="n">
         <v>1850.574984537459</v>
       </c>
       <c r="Q32" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R32" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S32" t="n">
-        <v>2112.785591996434</v>
+        <v>2098.845315523474</v>
       </c>
       <c r="T32" t="n">
-        <v>2112.785591996434</v>
+        <v>2098.845315523474</v>
       </c>
       <c r="U32" t="n">
-        <v>2112.785591996434</v>
+        <v>2098.845315523474</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.785591996434</v>
+        <v>2098.845315523474</v>
       </c>
       <c r="W32" t="n">
-        <v>2112.785591996434</v>
+        <v>1702.453965823821</v>
       </c>
       <c r="X32" t="n">
-        <v>2112.785591996434</v>
+        <v>1290.733966991568</v>
       </c>
       <c r="Y32" t="n">
-        <v>1719.001393223316</v>
+        <v>885.3966969464584</v>
       </c>
     </row>
     <row r="33">
@@ -6770,43 +6770,43 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G33" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H33" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I33" t="n">
-        <v>85.57985128796491</v>
+        <v>85.57985128796493</v>
       </c>
       <c r="J33" t="n">
-        <v>163.6254406849211</v>
+        <v>314.7579973604228</v>
       </c>
       <c r="K33" t="n">
-        <v>309.7179429007036</v>
+        <v>460.8504995762053</v>
       </c>
       <c r="L33" t="n">
-        <v>513.684754002099</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M33" t="n">
-        <v>754.8498931424621</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N33" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O33" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P33" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q33" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R33" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S33" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T33" t="n">
         <v>1616.33768667407</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>622.3699086331036</v>
+        <v>542.7998734492344</v>
       </c>
       <c r="C34" t="n">
-        <v>450.3973455120196</v>
+        <v>542.7998734492344</v>
       </c>
       <c r="D34" t="n">
-        <v>287.0805726387903</v>
+        <v>379.4831005760051</v>
       </c>
       <c r="E34" t="n">
-        <v>287.0805726387903</v>
+        <v>379.4831005760051</v>
       </c>
       <c r="F34" t="n">
-        <v>115.2187984133507</v>
+        <v>207.6213263505656</v>
       </c>
       <c r="G34" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H34" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I34" t="n">
         <v>42.25571183992867</v>
@@ -6864,25 +6864,25 @@
         <v>164.3334912372779</v>
       </c>
       <c r="L34" t="n">
-        <v>272.5169746335739</v>
+        <v>563.0636738724093</v>
       </c>
       <c r="M34" t="n">
-        <v>526.2839622820602</v>
+        <v>677.6574596599589</v>
       </c>
       <c r="N34" t="n">
-        <v>1037.462734774884</v>
+        <v>1188.836232152782</v>
       </c>
       <c r="O34" t="n">
-        <v>1516.372687468062</v>
+        <v>1667.746184845961</v>
       </c>
       <c r="P34" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q34" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R34" t="n">
-        <v>2105.825549548314</v>
+        <v>2105.825549548313</v>
       </c>
       <c r="S34" t="n">
         <v>1951.224392149867</v>
@@ -6897,13 +6897,13 @@
         <v>1429.982094635719</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.129690808232</v>
+        <v>1201.872507025753</v>
       </c>
       <c r="X34" t="n">
-        <v>1038.878645655427</v>
+        <v>959.308610471558</v>
       </c>
       <c r="Y34" t="n">
-        <v>812.5358773451692</v>
+        <v>732.9658421613001</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.785591996434</v>
+        <v>1320.257563489371</v>
       </c>
       <c r="C35" t="n">
-        <v>1996.519143154663</v>
+        <v>893.356833502671</v>
       </c>
       <c r="D35" t="n">
-        <v>1573.226522339663</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.249582487521</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F35" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H35" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I35" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372554</v>
       </c>
       <c r="J35" t="n">
-        <v>219.309993198372</v>
+        <v>219.3099931983724</v>
       </c>
       <c r="K35" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740996</v>
       </c>
       <c r="L35" t="n">
-        <v>701.0562546154872</v>
+        <v>701.0562546154875</v>
       </c>
       <c r="M35" t="n">
         <v>1005.977266623261</v>
@@ -6952,7 +6952,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O35" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.71019061354</v>
       </c>
       <c r="P35" t="n">
         <v>1850.574984537459</v>
@@ -6979,10 +6979,10 @@
         <v>2112.785591996434</v>
       </c>
       <c r="X35" t="n">
-        <v>2112.785591996434</v>
+        <v>1740.105927780901</v>
       </c>
       <c r="Y35" t="n">
-        <v>2112.785591996434</v>
+        <v>1740.105927780901</v>
       </c>
     </row>
     <row r="36">
@@ -7013,37 +7013,37 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I36" t="n">
-        <v>62.12254544355308</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J36" t="n">
-        <v>140.1681348405093</v>
+        <v>163.6254406849211</v>
       </c>
       <c r="K36" t="n">
-        <v>566.3059998611114</v>
+        <v>309.7179429007036</v>
       </c>
       <c r="L36" t="n">
-        <v>770.2728109625068</v>
+        <v>513.684754002099</v>
       </c>
       <c r="M36" t="n">
-        <v>1011.43795010287</v>
+        <v>754.8498931424621</v>
       </c>
       <c r="N36" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P36" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R36" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S36" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T36" t="n">
         <v>1616.33768667407</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>722.3998255419715</v>
+        <v>567.6483966649299</v>
       </c>
       <c r="C37" t="n">
-        <v>722.3998255419715</v>
+        <v>395.6758335438459</v>
       </c>
       <c r="D37" t="n">
-        <v>559.0830526687422</v>
+        <v>349.988796549595</v>
       </c>
       <c r="E37" t="n">
-        <v>392.8748468215957</v>
+        <v>349.988796549595</v>
       </c>
       <c r="F37" t="n">
-        <v>221.0130725961561</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="G37" t="n">
-        <v>221.0130725961561</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I37" t="n">
         <v>42.25571183992867</v>
@@ -7101,16 +7101,16 @@
         <v>489.5378169995208</v>
       </c>
       <c r="L37" t="n">
-        <v>693.8280571394538</v>
+        <v>974.1101939869818</v>
       </c>
       <c r="M37" t="n">
-        <v>1216.742491158571</v>
+        <v>1088.703979774531</v>
       </c>
       <c r="N37" t="n">
-        <v>1727.921263651395</v>
+        <v>1201.849829425475</v>
       </c>
       <c r="O37" t="n">
-        <v>1829.128892041369</v>
+        <v>1516.372687468062</v>
       </c>
       <c r="P37" t="n">
         <v>1912.631931977722</v>
@@ -7119,28 +7119,28 @@
         <v>2112.785591996434</v>
       </c>
       <c r="R37" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S37" t="n">
-        <v>1951.224392149867</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.69356202769</v>
+        <v>1873.254761874257</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.69356202769</v>
+        <v>1593.118932748841</v>
       </c>
       <c r="V37" t="n">
-        <v>1429.982094635719</v>
+        <v>1311.40746535687</v>
       </c>
       <c r="W37" t="n">
-        <v>1155.129690808232</v>
+        <v>1036.555061529383</v>
       </c>
       <c r="X37" t="n">
-        <v>912.5657942540371</v>
+        <v>793.9911649751879</v>
       </c>
       <c r="Y37" t="n">
-        <v>912.5657942540371</v>
+        <v>567.6483966649299</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>893.356833502671</v>
+        <v>1743.550184304371</v>
       </c>
       <c r="C38" t="n">
-        <v>893.356833502671</v>
+        <v>1316.649454317671</v>
       </c>
       <c r="D38" t="n">
         <v>893.356833502671</v>
@@ -7174,13 +7174,13 @@
         <v>83.13735652372554</v>
       </c>
       <c r="J38" t="n">
-        <v>219.3099931983723</v>
+        <v>219.3099931983724</v>
       </c>
       <c r="K38" t="n">
         <v>431.6424856740996</v>
       </c>
       <c r="L38" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154875</v>
       </c>
       <c r="M38" t="n">
         <v>1005.977266623261</v>
@@ -7201,25 +7201,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="X38" t="n">
-        <v>1718.542467839311</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="Y38" t="n">
-        <v>1313.205197794201</v>
+        <v>2053.699874737618</v>
       </c>
     </row>
     <row r="39">
@@ -7250,37 +7250,37 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I39" t="n">
-        <v>85.57985128796491</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J39" t="n">
-        <v>420.213497645329</v>
+        <v>314.7579973604228</v>
       </c>
       <c r="K39" t="n">
-        <v>566.3059998611114</v>
+        <v>460.8504995762053</v>
       </c>
       <c r="L39" t="n">
-        <v>770.2728109625068</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M39" t="n">
-        <v>1011.43795010287</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N39" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R39" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S39" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T39" t="n">
         <v>1616.33768667407</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.851952901692</v>
+        <v>890.1890447523369</v>
       </c>
       <c r="C40" t="n">
-        <v>844.8793897806077</v>
+        <v>718.2164816312529</v>
       </c>
       <c r="D40" t="n">
-        <v>681.5626169073784</v>
+        <v>554.8997087580236</v>
       </c>
       <c r="E40" t="n">
-        <v>515.3544110602319</v>
+        <v>388.6915029108771</v>
       </c>
       <c r="F40" t="n">
-        <v>343.4926368347923</v>
+        <v>388.6915029108771</v>
       </c>
       <c r="G40" t="n">
-        <v>178.1270223241554</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H40" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I40" t="n">
         <v>42.25571183992867</v>
@@ -7335,49 +7335,49 @@
         <v>83.59006134693919</v>
       </c>
       <c r="K40" t="n">
-        <v>164.3334912372779</v>
+        <v>411.6161003512999</v>
       </c>
       <c r="L40" t="n">
-        <v>648.9058682247389</v>
+        <v>896.188477338761</v>
       </c>
       <c r="M40" t="n">
-        <v>1171.820302243856</v>
+        <v>1419.102911357878</v>
       </c>
       <c r="N40" t="n">
-        <v>1415.165059078087</v>
+        <v>1879.294761029294</v>
       </c>
       <c r="O40" t="n">
-        <v>1516.372687468062</v>
+        <v>1980.502389419269</v>
       </c>
       <c r="P40" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355621</v>
       </c>
       <c r="Q40" t="n">
         <v>2112.785591996434</v>
       </c>
       <c r="R40" t="n">
-        <v>2112.785591996434</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S40" t="n">
-        <v>1958.184434597987</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="T40" t="n">
-        <v>1718.65360447581</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="U40" t="n">
-        <v>1718.65360447581</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="V40" t="n">
-        <v>1718.65360447581</v>
+        <v>1824.114082156342</v>
       </c>
       <c r="W40" t="n">
-        <v>1443.801200648323</v>
+        <v>1549.261678328855</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.360689924015</v>
+        <v>1306.697781774661</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.017921613757</v>
+        <v>1080.355013464403</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>875.8799588275413</v>
+        <v>1696.210459863867</v>
       </c>
       <c r="C41" t="n">
-        <v>448.9792288408414</v>
+        <v>1269.309729877167</v>
       </c>
       <c r="D41" t="n">
-        <v>448.9792288408414</v>
+        <v>893.356833502671</v>
       </c>
       <c r="E41" t="n">
-        <v>448.9792288408414</v>
+        <v>467.3798936505285</v>
       </c>
       <c r="F41" t="n">
         <v>42.25571183992867</v>
@@ -7408,16 +7408,16 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I41" t="n">
-        <v>83.13735652372554</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J41" t="n">
-        <v>219.3099931983723</v>
+        <v>219.309993198372</v>
       </c>
       <c r="K41" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740992</v>
       </c>
       <c r="L41" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M41" t="n">
         <v>1005.977266623261</v>
@@ -7438,25 +7438,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S41" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T41" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="U41" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.785591996434</v>
+        <v>1696.210459863867</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.785591996434</v>
+        <v>1696.210459863867</v>
       </c>
       <c r="X41" t="n">
-        <v>1701.065593164181</v>
+        <v>1696.210459863867</v>
       </c>
       <c r="Y41" t="n">
-        <v>1295.728323119071</v>
+        <v>1696.210459863867</v>
       </c>
     </row>
     <row r="42">
@@ -7487,37 +7487,37 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I42" t="n">
-        <v>85.57985128796491</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J42" t="n">
-        <v>420.213497645329</v>
+        <v>314.7579973604228</v>
       </c>
       <c r="K42" t="n">
-        <v>566.3059998611114</v>
+        <v>460.8504995762053</v>
       </c>
       <c r="L42" t="n">
-        <v>770.2728109625068</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M42" t="n">
-        <v>1011.43795010287</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N42" t="n">
-        <v>1261.327417665819</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R42" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S42" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T42" t="n">
         <v>1616.33768667407</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>442.2639964165557</v>
+        <v>377.4824279528643</v>
       </c>
       <c r="C43" t="n">
-        <v>287.0805726387903</v>
+        <v>341.4437951973847</v>
       </c>
       <c r="D43" t="n">
-        <v>287.0805726387903</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="E43" t="n">
-        <v>287.0805726387903</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="F43" t="n">
-        <v>115.2187984133507</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="G43" t="n">
-        <v>115.2187984133507</v>
+        <v>178.1270223241554</v>
       </c>
       <c r="H43" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I43" t="n">
         <v>42.25571183992867</v>
@@ -7575,7 +7575,7 @@
         <v>489.5378169995208</v>
       </c>
       <c r="L43" t="n">
-        <v>779.1047754080265</v>
+        <v>779.1047754080263</v>
       </c>
       <c r="M43" t="n">
         <v>1302.019209427144</v>
@@ -7593,28 +7593,28 @@
         <v>2112.785591996434</v>
       </c>
       <c r="R43" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S43" t="n">
-        <v>1951.224392149867</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.69356202769</v>
+        <v>1873.254761874257</v>
       </c>
       <c r="U43" t="n">
-        <v>1431.557732902274</v>
+        <v>1593.118932748841</v>
       </c>
       <c r="V43" t="n">
-        <v>1149.846265510303</v>
+        <v>1311.40746535687</v>
       </c>
       <c r="W43" t="n">
-        <v>874.9938616828163</v>
+        <v>1036.555061529383</v>
       </c>
       <c r="X43" t="n">
-        <v>632.4299651286213</v>
+        <v>793.9911649751879</v>
       </c>
       <c r="Y43" t="n">
-        <v>632.4299651286213</v>
+        <v>567.6483966649299</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>671.914603262848</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="C44" t="n">
-        <v>671.914603262848</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="D44" t="n">
-        <v>468.2326516920711</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="E44" t="n">
-        <v>42.25571183992867</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="F44" t="n">
-        <v>42.25571183992867</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="G44" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H44" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I44" t="n">
-        <v>83.13735652372608</v>
+        <v>83.13735652372547</v>
       </c>
       <c r="J44" t="n">
-        <v>219.3099931983728</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K44" t="n">
-        <v>431.6424856741001</v>
+        <v>431.6424856740995</v>
       </c>
       <c r="L44" t="n">
-        <v>701.056254615488</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M44" t="n">
-        <v>1005.977266623262</v>
+        <v>1005.977266623261</v>
       </c>
       <c r="N44" t="n">
-        <v>1316.581963251985</v>
+        <v>1316.581963251984</v>
       </c>
       <c r="O44" t="n">
         <v>1607.71019061354</v>
       </c>
       <c r="P44" t="n">
-        <v>1850.57498453746</v>
+        <v>1850.574984537459</v>
       </c>
       <c r="Q44" t="n">
         <v>2025.128259099849</v>
@@ -7675,25 +7675,25 @@
         <v>2112.785591996434</v>
       </c>
       <c r="S44" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T44" t="n">
-        <v>2112.785591996434</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U44" t="n">
-        <v>1854.589652473238</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="V44" t="n">
-        <v>1497.100237599488</v>
+        <v>1225.787582528031</v>
       </c>
       <c r="W44" t="n">
-        <v>1497.100237599488</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="X44" t="n">
-        <v>1497.100237599488</v>
+        <v>417.6762339961251</v>
       </c>
       <c r="Y44" t="n">
-        <v>1091.762967554378</v>
+        <v>417.6762339961251</v>
       </c>
     </row>
     <row r="45">
@@ -7724,37 +7724,37 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I45" t="n">
-        <v>85.57985128796491</v>
+        <v>85.57985128796494</v>
       </c>
       <c r="J45" t="n">
-        <v>163.6254406849211</v>
+        <v>314.7579973604228</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7179429007036</v>
+        <v>460.8504995762053</v>
       </c>
       <c r="L45" t="n">
-        <v>513.684754002099</v>
+        <v>664.8173106776007</v>
       </c>
       <c r="M45" t="n">
-        <v>754.8498931424621</v>
+        <v>905.9824498179638</v>
       </c>
       <c r="N45" t="n">
-        <v>1004.739360705411</v>
+        <v>1155.871917380913</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.316743895952</v>
+        <v>1380.861243611046</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.748890340481</v>
+        <v>1558.293390055575</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R45" t="n">
         <v>1815.507845353902</v>
       </c>
       <c r="S45" t="n">
-        <v>1753.932160894073</v>
+        <v>1753.932160894072</v>
       </c>
       <c r="T45" t="n">
         <v>1616.33768667407</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.4824279528643</v>
+        <v>891.7646830188921</v>
       </c>
       <c r="C46" t="n">
-        <v>205.5098648317803</v>
+        <v>719.7921198978081</v>
       </c>
       <c r="D46" t="n">
-        <v>205.5098648317803</v>
+        <v>556.4753470245788</v>
       </c>
       <c r="E46" t="n">
-        <v>205.5098648317803</v>
+        <v>390.2671411774323</v>
       </c>
       <c r="F46" t="n">
-        <v>42.25571183992867</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="G46" t="n">
-        <v>42.25571183992867</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H46" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I46" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="J46" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693919</v>
       </c>
       <c r="K46" t="n">
-        <v>294.5323984205655</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L46" t="n">
-        <v>779.1047754080265</v>
+        <v>272.516974633574</v>
       </c>
       <c r="M46" t="n">
-        <v>1302.019209427144</v>
+        <v>677.6574596599594</v>
       </c>
       <c r="N46" t="n">
-        <v>1415.165059078087</v>
+        <v>1188.836232152783</v>
       </c>
       <c r="O46" t="n">
-        <v>1516.372687468062</v>
+        <v>1667.746184845961</v>
       </c>
       <c r="P46" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.005429355621</v>
       </c>
       <c r="Q46" t="n">
         <v>2112.785591996434</v>
       </c>
       <c r="R46" t="n">
-        <v>2112.785591996434</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.785591996434</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="T46" t="n">
-        <v>1873.254761874257</v>
+        <v>2105.825549548314</v>
       </c>
       <c r="U46" t="n">
-        <v>1593.118932748841</v>
+        <v>1825.689720422898</v>
       </c>
       <c r="V46" t="n">
-        <v>1311.40746535687</v>
+        <v>1825.689720422898</v>
       </c>
       <c r="W46" t="n">
-        <v>1036.555061529383</v>
+        <v>1550.837316595411</v>
       </c>
       <c r="X46" t="n">
-        <v>793.9911649751879</v>
+        <v>1308.273420041216</v>
       </c>
       <c r="Y46" t="n">
-        <v>567.6483966649299</v>
+        <v>1081.930651730958</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K2" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L2" t="n">
-        <v>11.42645714324614</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M2" t="n">
-        <v>7.515868967310208</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N2" t="n">
-        <v>6.880166552921239</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O2" t="n">
-        <v>8.685614816471276</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P2" t="n">
-        <v>13.07601436734048</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R2" t="n">
         <v>24.33067662398352</v>
@@ -8060,10 +8060,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K3" t="n">
-        <v>7.679584047590227</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L3" t="n">
-        <v>2.722701059689189</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P3" t="n">
-        <v>4.36409670170012</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q3" t="n">
         <v>11.11109056471342</v>
@@ -8148,10 +8148,10 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N4" t="n">
-        <v>9.054267004656877</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O4" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P4" t="n">
         <v>13.13791998612571</v>
@@ -8218,13 +8218,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -8236,7 +8236,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -8297,7 +8297,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -8388,7 +8388,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -8458,22 +8458,22 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L8" t="n">
-        <v>9.587300011056808</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M8" t="n">
-        <v>5.4694522901083</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N8" t="n">
-        <v>4.800636714419433</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O8" t="n">
-        <v>6.721973758497697</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P8" t="n">
         <v>11.40009215480153</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.46813718922236</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R8" t="n">
         <v>23.59858876881258</v>
@@ -8534,10 +8534,10 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K9" t="n">
-        <v>6.672659757291239</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L9" t="n">
-        <v>1.368767089206766</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.173356832861341</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q9" t="n">
         <v>10.31511249629769</v>
@@ -8616,13 +8616,13 @@
         <v>11.47844714143665</v>
       </c>
       <c r="L10" t="n">
-        <v>9.779680524136499</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M10" t="n">
-        <v>9.776482718690756</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N10" t="n">
-        <v>8.254274397298504</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O10" t="n">
         <v>10.95837753944877</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>152.6591481570728</v>
+        <v>282.8741038432514</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>412.4450992238057</v>
+        <v>412.4450992238056</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>130.1873499709586</v>
       </c>
       <c r="O13" t="n">
-        <v>368.7206011195701</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>282.874103843252</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>152.6591481570723</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>196.9517733137127</v>
       </c>
       <c r="M16" t="n">
-        <v>282.2343522847866</v>
+        <v>412.4450992238058</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>282.8741038432519</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>412.4450992238057</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>271.8427104770214</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>302.7703104046624</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>282.8741038432514</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>176.3533964847614</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>44.04925070977391</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>412.4450992238056</v>
+        <v>302.7703104046619</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>152.6591481570724</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>214.7727096874893</v>
+        <v>196.9517733137132</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>412.4450992238059</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>152.6591481570725</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>176.3533964847614</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>215.4699289420321</v>
+        <v>412.4450992238056</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>198.27847100264</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>259.1798555155634</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.6591481570725</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>44.04925070977426</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>412.4450992238058</v>
+        <v>229.2060709302806</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>152.6591481570725</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>259.1798555155634</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>293.4815143826619</v>
       </c>
       <c r="M34" t="n">
-        <v>140.5789917787238</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>152.6591481570725</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>97.07753206427975</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>412.4450992238058</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>215.4699289420323</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>259.1798555155635</v>
+        <v>152.6591481570724</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,16 +10992,16 @@
         <v>412.4450992238057</v>
       </c>
       <c r="N40" t="n">
-        <v>131.5140476598864</v>
+        <v>350.5515151721939</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>259.1798555155635</v>
+        <v>152.6591481570724</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>183.2156313254643</v>
+        <v>183.215631325464</v>
       </c>
       <c r="M43" t="n">
         <v>412.4450992238058</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>152.6591481570724</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>259.1798555155634</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>52.8052429647139</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>412.4450992238058</v>
+        <v>293.4815143826624</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1136478495507838</v>
+        <v>0.1136478495507839</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>83.3641392048325</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U11" t="n">
         <v>255.6139801279633</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>281.5401935843013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.93872905138062</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>42.42012852450105</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.56302402585425</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.7425724320338</v>
+        <v>82.28328048054686</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6139801279633</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.223915278992678</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>35.5296865008622</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>124.4597708917195</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>245.1825716250843</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.328419516589</v>
       </c>
       <c r="H17" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>129.2429728426002</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>6.890442023638968</v>
       </c>
       <c r="S19" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>185.0085337477117</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>86.39818391445471</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>375.4063100378269</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>122.9370165489199</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.890442023638961</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>137.12304224104</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>219.8985450728476</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>85.37924267374126</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>398.328419516589</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>210.1046684345147</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.49147929775785</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>165.0580044448101</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>108.6016871197003</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H26" t="n">
         <v>274.7425724320338</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1046684345147</v>
@@ -24505,7 +24505,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>2.581079417270587</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.28263873306668</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.74080330341127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>73.92234691082257</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1046684345147</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>116.6671087074133</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>144.2178707230776</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>79.77110855853553</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H32" t="n">
         <v>274.7425724320338</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.49486008622742</v>
+        <v>44.69398637799767</v>
       </c>
       <c r="T32" t="n">
         <v>210.1046684345147</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.43754055927212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.27538805534604</v>
       </c>
       <c r="X34" t="n">
-        <v>125.0497228873761</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>307.5279383334802</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>38.64993127055283</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>116.4534385201886</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>163.7119583655305</v>
       </c>
       <c r="H37" t="n">
-        <v>29.77626593840704</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>108.6016871196999</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.1046684345147</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>17.30210592837841</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>27.48657829236379</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344708341617</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>229.8021519715882</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>46.86632719609815</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.2166581615902</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.328419516589</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.1046684345147</v>
@@ -25687,16 +25687,16 @@
         <v>255.6139801279633</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>16.62124794988537</v>
+        <v>134.5745910619484</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7119583655305</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>217.4145625517806</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.328419516589</v>
+        <v>301.4046750139884</v>
       </c>
       <c r="H44" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.521545021252081</v>
+        <v>32.3578945261288</v>
       </c>
       <c r="G46" t="n">
         <v>163.7119583655305</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.055145824462</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>346644.6800040164</v>
+        <v>346644.6800040166</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346644.6800040164</v>
+        <v>346644.6800040166</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346644.6800040166</v>
+        <v>346644.6800040165</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>346644.6800040166</v>
+        <v>346644.6800040165</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459016.6182600349</v>
+        <v>459016.6182600351</v>
       </c>
       <c r="C2" t="n">
-        <v>459016.6182600349</v>
+        <v>459016.6182600352</v>
       </c>
       <c r="D2" t="n">
-        <v>459017.3604144077</v>
+        <v>459017.3604144076</v>
       </c>
       <c r="E2" t="n">
-        <v>270872.3204684593</v>
+        <v>270872.3204684594</v>
       </c>
       <c r="F2" t="n">
         <v>270872.3204684593</v>
@@ -26331,28 +26331,28 @@
         <v>270872.3204684594</v>
       </c>
       <c r="H2" t="n">
-        <v>270872.3204684593</v>
+        <v>270872.3204684594</v>
       </c>
       <c r="I2" t="n">
-        <v>270872.3204684593</v>
+        <v>270872.3204684595</v>
       </c>
       <c r="J2" t="n">
         <v>270872.3204684593</v>
       </c>
       <c r="K2" t="n">
+        <v>270872.3204684592</v>
+      </c>
+      <c r="L2" t="n">
         <v>270872.3204684594</v>
-      </c>
-      <c r="L2" t="n">
-        <v>270872.3204684593</v>
       </c>
       <c r="M2" t="n">
         <v>270872.3204684594</v>
       </c>
       <c r="N2" t="n">
-        <v>270872.3204684593</v>
+        <v>270872.3204684595</v>
       </c>
       <c r="O2" t="n">
-        <v>270872.3204684594</v>
+        <v>270872.3204684592</v>
       </c>
       <c r="P2" t="n">
         <v>270872.3204684593</v>
@@ -26374,7 +26374,7 @@
         <v>2482.778886658995</v>
       </c>
       <c r="E3" t="n">
-        <v>514479.4514704265</v>
+        <v>514479.4514704266</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312459.3647125762</v>
+        <v>312459.3647125761</v>
       </c>
       <c r="C4" t="n">
-        <v>312459.3647125762</v>
+        <v>312459.3647125761</v>
       </c>
       <c r="D4" t="n">
         <v>311558.4141750159</v>
       </c>
       <c r="E4" t="n">
-        <v>25422.72791142585</v>
+        <v>25422.72791142583</v>
       </c>
       <c r="F4" t="n">
         <v>25422.72791142585</v>
       </c>
       <c r="G4" t="n">
+        <v>25422.72791142585</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25422.72791142583</v>
+      </c>
+      <c r="I4" t="n">
         <v>25422.72791142586</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>25422.72791142584</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25422.72791142584</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25422.72791142584</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25422.72791142584</v>
+      </c>
+      <c r="N4" t="n">
         <v>25422.72791142585</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
+        <v>25422.72791142584</v>
+      </c>
+      <c r="P4" t="n">
         <v>25422.72791142585</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25422.72791142585</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25422.72791142586</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25422.72791142586</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25422.72791142586</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25422.72791142586</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25422.72791142586</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25422.72791142586</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>42782.25824471217</v>
       </c>
       <c r="H5" t="n">
-        <v>42782.25824471215</v>
+        <v>42782.25824471217</v>
       </c>
       <c r="I5" t="n">
-        <v>42782.25824471215</v>
+        <v>42782.25824471217</v>
       </c>
       <c r="J5" t="n">
-        <v>42782.25824471215</v>
+        <v>42782.25824471216</v>
       </c>
       <c r="K5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471216</v>
       </c>
       <c r="L5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471216</v>
       </c>
       <c r="M5" t="n">
         <v>42782.25824471217</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71168.42827223914</v>
+        <v>71146.74853427413</v>
       </c>
       <c r="C6" t="n">
-        <v>112005.7823269656</v>
+        <v>111984.1025890006</v>
       </c>
       <c r="D6" t="n">
-        <v>110361.4970489351</v>
+        <v>110339.8196302022</v>
       </c>
       <c r="E6" t="n">
-        <v>-311812.1171581052</v>
+        <v>-312421.7478266692</v>
       </c>
       <c r="F6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437574</v>
       </c>
       <c r="G6" t="n">
-        <v>202667.3343123214</v>
+        <v>202057.7036437574</v>
       </c>
       <c r="H6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437574</v>
       </c>
       <c r="I6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437574</v>
       </c>
       <c r="J6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437573</v>
       </c>
       <c r="K6" t="n">
-        <v>202667.3343123214</v>
+        <v>202057.7036437572</v>
       </c>
       <c r="L6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437574</v>
       </c>
       <c r="M6" t="n">
-        <v>71038.67914535158</v>
+        <v>70429.0484767876</v>
       </c>
       <c r="N6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437575</v>
       </c>
       <c r="O6" t="n">
-        <v>202667.3343123214</v>
+        <v>202057.7036437572</v>
       </c>
       <c r="P6" t="n">
-        <v>202667.3343123213</v>
+        <v>202057.7036437573</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>42.37941378408804</v>
       </c>
       <c r="D3" t="n">
-        <v>45.27845430264449</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="E3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="F3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="G3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="H3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="I3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="J3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="K3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="M3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="N3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="O3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
       <c r="P3" t="n">
-        <v>489.3540021268979</v>
+        <v>489.354002126898</v>
       </c>
     </row>
     <row r="4">
@@ -26807,19 +26807,19 @@
         <v>528.1963979991084</v>
       </c>
       <c r="H4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="I4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="J4" t="n">
         <v>528.1963979991083</v>
       </c>
       <c r="K4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="L4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="M4" t="n">
         <v>528.1963979991084</v>
@@ -26968,7 +26968,7 @@
         <v>2.89904051855644</v>
       </c>
       <c r="E3" t="n">
-        <v>444.0755478242534</v>
+        <v>444.0755478242535</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I2" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J2" t="n">
-        <v>14.45989857550651</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K2" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L2" t="n">
         <v>26.88558528937678</v>
       </c>
       <c r="M2" t="n">
-        <v>29.91539393212161</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N2" t="n">
         <v>30.39945628152478</v>
@@ -31068,7 +31068,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P2" t="n">
-        <v>24.49934744289082</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q2" t="n">
         <v>18.39798962925201</v>
@@ -31077,10 +31077,10 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S2" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U2" t="n">
         <v>0.013629560211968</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8803723504958669</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I3" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J3" t="n">
-        <v>8.612216531349441</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K3" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L3" t="n">
-        <v>19.79238565454037</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -31144,7 +31144,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P3" t="n">
         <v>17.40674450312854</v>
@@ -31153,16 +31153,16 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R3" t="n">
-        <v>5.659650769127836</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S3" t="n">
         <v>1.693177522411441</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I4" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J4" t="n">
-        <v>5.403027885227093</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K4" t="n">
-        <v>8.878834560010574</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L4" t="n">
         <v>11.36185136106518</v>
@@ -31220,19 +31220,19 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N4" t="n">
-        <v>11.69463397094352</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O4" t="n">
         <v>10.80188730352461</v>
       </c>
       <c r="P4" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.399291481397294</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R4" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S4" t="n">
         <v>1.331825184001586</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31521,22 +31521,22 @@
         <v>1.864152643726463</v>
       </c>
       <c r="I8" t="n">
-        <v>7.017477827146541</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J8" t="n">
-        <v>15.44905411404653</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K8" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L8" t="n">
-        <v>28.72474242156612</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M8" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N8" t="n">
-        <v>32.47898612002659</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O8" t="n">
         <v>30.6689855975264</v>
@@ -31545,7 +31545,7 @@
         <v>26.17526965542977</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.65653741537568</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R8" t="n">
         <v>11.43406112598389</v>
@@ -31554,7 +31554,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7968097837580953</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U8" t="n">
         <v>0.01456191495160424</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09739139227361268</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9405958148530489</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I9" t="n">
         <v>3.353168549771314</v>
       </c>
       <c r="J9" t="n">
-        <v>9.201350793710048</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K9" t="n">
-        <v>15.7265740760421</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L9" t="n">
         <v>21.14631962502279</v>
@@ -31624,16 +31624,16 @@
         <v>18.59748437196732</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.43192579268081</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R9" t="n">
-        <v>6.046809425549393</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S9" t="n">
         <v>1.809002395959427</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3925556556993422</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U9" t="n">
         <v>0.006407328439053468</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08164967169329333</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7259398083276449</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I10" t="n">
         <v>2.455428308740131</v>
       </c>
       <c r="J10" t="n">
-        <v>5.772631788715838</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K10" t="n">
-        <v>9.486207311275351</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L10" t="n">
         <v>12.13907937156472</v>
@@ -31703,10 +31703,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.837046599699318</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R10" t="n">
-        <v>3.671266147227534</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S10" t="n">
         <v>1.422931096691302</v>
@@ -31715,7 +31715,7 @@
         <v>0.3488667790531623</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004453618455997823</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,34 +31755,34 @@
         <v>1.967252269856875</v>
       </c>
       <c r="H11" t="n">
-        <v>20.14712230867172</v>
+        <v>20.14712230867173</v>
       </c>
       <c r="I11" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J11" t="n">
         <v>166.9680773387651</v>
       </c>
       <c r="K11" t="n">
-        <v>250.2418659218066</v>
+        <v>250.2418659218067</v>
       </c>
       <c r="L11" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M11" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N11" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O11" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P11" t="n">
         <v>282.8933354707561</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.4411135565067</v>
+        <v>212.4411135565068</v>
       </c>
       <c r="R11" t="n">
         <v>123.575410396397</v>
@@ -31791,10 +31791,10 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T11" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1573801815885499</v>
+        <v>0.15738018158855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,13 +31834,13 @@
         <v>1.052572759291818</v>
       </c>
       <c r="H12" t="n">
-        <v>10.16563691210782</v>
+        <v>10.16563691210783</v>
       </c>
       <c r="I12" t="n">
         <v>36.23989544052971</v>
       </c>
       <c r="J12" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712747</v>
       </c>
       <c r="K12" t="n">
         <v>169.9674178896793</v>
@@ -31849,31 +31849,31 @@
         <v>228.542168634831</v>
       </c>
       <c r="M12" t="n">
-        <v>266.6979311591593</v>
+        <v>266.6979311591594</v>
       </c>
       <c r="N12" t="n">
-        <v>273.7566318124804</v>
+        <v>273.7566318124805</v>
       </c>
       <c r="O12" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P12" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.3599894141626</v>
+        <v>134.3599894141627</v>
       </c>
       <c r="R12" t="n">
-        <v>65.35184201989028</v>
+        <v>65.3518420198903</v>
       </c>
       <c r="S12" t="n">
-        <v>19.55107734912652</v>
+        <v>19.55107734912653</v>
       </c>
       <c r="T12" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814598</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H13" t="n">
-        <v>7.845708427542728</v>
+        <v>7.84570842754273</v>
       </c>
       <c r="I13" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J13" t="n">
-        <v>62.38862417280139</v>
+        <v>62.3886241728014</v>
       </c>
       <c r="K13" t="n">
         <v>102.5236745439632</v>
       </c>
       <c r="L13" t="n">
-        <v>131.1950057505457</v>
+        <v>131.1950057505458</v>
       </c>
       <c r="M13" t="n">
         <v>138.3267386667885</v>
@@ -31934,25 +31934,25 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O13" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P13" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R13" t="n">
-        <v>39.67778515605961</v>
+        <v>39.67778515605962</v>
       </c>
       <c r="S13" t="n">
-        <v>15.37855118159447</v>
+        <v>15.37855118159448</v>
       </c>
       <c r="T13" t="n">
-        <v>3.770432475403966</v>
+        <v>3.770432475403967</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707199</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,34 +31992,34 @@
         <v>1.967252269856875</v>
       </c>
       <c r="H14" t="n">
-        <v>20.14712230867172</v>
+        <v>20.14712230867173</v>
       </c>
       <c r="I14" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J14" t="n">
         <v>166.9680773387651</v>
       </c>
       <c r="K14" t="n">
-        <v>250.2418659218066</v>
+        <v>250.2418659218067</v>
       </c>
       <c r="L14" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M14" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N14" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O14" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P14" t="n">
         <v>282.8933354707561</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.4411135565067</v>
+        <v>212.4411135565068</v>
       </c>
       <c r="R14" t="n">
         <v>123.575410396397</v>
@@ -32028,10 +32028,10 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T14" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1573801815885499</v>
+        <v>0.15738018158855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,13 +32071,13 @@
         <v>1.052572759291818</v>
       </c>
       <c r="H15" t="n">
-        <v>10.16563691210782</v>
+        <v>10.16563691210783</v>
       </c>
       <c r="I15" t="n">
         <v>36.23989544052971</v>
       </c>
       <c r="J15" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712747</v>
       </c>
       <c r="K15" t="n">
         <v>169.9674178896793</v>
@@ -32086,31 +32086,31 @@
         <v>228.542168634831</v>
       </c>
       <c r="M15" t="n">
-        <v>266.6979311591593</v>
+        <v>266.6979311591594</v>
       </c>
       <c r="N15" t="n">
-        <v>273.7566318124804</v>
+        <v>273.7566318124805</v>
       </c>
       <c r="O15" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P15" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.3599894141626</v>
+        <v>134.3599894141627</v>
       </c>
       <c r="R15" t="n">
-        <v>65.35184201989028</v>
+        <v>65.3518420198903</v>
       </c>
       <c r="S15" t="n">
-        <v>19.55107734912652</v>
+        <v>19.55107734912653</v>
       </c>
       <c r="T15" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814598</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H16" t="n">
-        <v>7.845708427542728</v>
+        <v>7.84570842754273</v>
       </c>
       <c r="I16" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J16" t="n">
-        <v>62.38862417280139</v>
+        <v>62.3886241728014</v>
       </c>
       <c r="K16" t="n">
         <v>102.5236745439632</v>
       </c>
       <c r="L16" t="n">
-        <v>131.1950057505457</v>
+        <v>131.1950057505458</v>
       </c>
       <c r="M16" t="n">
         <v>138.3267386667885</v>
@@ -32171,25 +32171,25 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O16" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P16" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R16" t="n">
-        <v>39.67778515605961</v>
+        <v>39.67778515605962</v>
       </c>
       <c r="S16" t="n">
-        <v>15.37855118159447</v>
+        <v>15.37855118159448</v>
       </c>
       <c r="T16" t="n">
-        <v>3.770432475403966</v>
+        <v>3.770432475403967</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707199</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I17" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J17" t="n">
         <v>166.9680773387651</v>
@@ -32241,16 +32241,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L17" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M17" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N17" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O17" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P17" t="n">
         <v>282.8933354707561</v>
@@ -32265,7 +32265,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T17" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U17" t="n">
         <v>0.1573801815885499</v>
@@ -32314,7 +32314,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J18" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K18" t="n">
         <v>169.9674178896793</v>
@@ -32329,10 +32329,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O18" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P18" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q18" t="n">
         <v>134.3599894141626</v>
@@ -32344,7 +32344,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T18" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U18" t="n">
         <v>0.06924820784814596</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H19" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I19" t="n">
         <v>26.537426869439</v>
@@ -32408,13 +32408,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O19" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P19" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R19" t="n">
         <v>39.67778515605961</v>
@@ -32426,7 +32426,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,34 +32466,34 @@
         <v>1.967252269856875</v>
       </c>
       <c r="H20" t="n">
-        <v>20.14712230867172</v>
+        <v>20.14712230867173</v>
       </c>
       <c r="I20" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J20" t="n">
         <v>166.9680773387651</v>
       </c>
       <c r="K20" t="n">
-        <v>250.2418659218066</v>
+        <v>250.2418659218067</v>
       </c>
       <c r="L20" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M20" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N20" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O20" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P20" t="n">
         <v>282.8933354707561</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.4411135565067</v>
+        <v>212.4411135565068</v>
       </c>
       <c r="R20" t="n">
         <v>123.575410396397</v>
@@ -32502,10 +32502,10 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T20" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1573801815885499</v>
+        <v>0.15738018158855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,13 +32545,13 @@
         <v>1.052572759291818</v>
       </c>
       <c r="H21" t="n">
-        <v>10.16563691210782</v>
+        <v>10.16563691210783</v>
       </c>
       <c r="I21" t="n">
         <v>36.23989544052971</v>
       </c>
       <c r="J21" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712747</v>
       </c>
       <c r="K21" t="n">
         <v>169.9674178896793</v>
@@ -32560,31 +32560,31 @@
         <v>228.542168634831</v>
       </c>
       <c r="M21" t="n">
-        <v>266.6979311591593</v>
+        <v>266.6979311591594</v>
       </c>
       <c r="N21" t="n">
-        <v>273.7566318124804</v>
+        <v>273.7566318124805</v>
       </c>
       <c r="O21" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P21" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.3599894141626</v>
+        <v>134.3599894141627</v>
       </c>
       <c r="R21" t="n">
-        <v>65.35184201989028</v>
+        <v>65.3518420198903</v>
       </c>
       <c r="S21" t="n">
-        <v>19.55107734912652</v>
+        <v>19.55107734912653</v>
       </c>
       <c r="T21" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814598</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H22" t="n">
-        <v>7.845708427542728</v>
+        <v>7.84570842754273</v>
       </c>
       <c r="I22" t="n">
         <v>26.537426869439</v>
       </c>
       <c r="J22" t="n">
-        <v>62.38862417280139</v>
+        <v>62.3886241728014</v>
       </c>
       <c r="K22" t="n">
         <v>102.5236745439632</v>
       </c>
       <c r="L22" t="n">
-        <v>131.1950057505457</v>
+        <v>131.1950057505458</v>
       </c>
       <c r="M22" t="n">
         <v>138.3267386667885</v>
@@ -32645,25 +32645,25 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O22" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P22" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R22" t="n">
-        <v>39.67778515605961</v>
+        <v>39.67778515605962</v>
       </c>
       <c r="S22" t="n">
-        <v>15.37855118159447</v>
+        <v>15.37855118159448</v>
       </c>
       <c r="T22" t="n">
-        <v>3.770432475403966</v>
+        <v>3.770432475403967</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707199</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I23" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J23" t="n">
         <v>166.9680773387651</v>
@@ -32715,16 +32715,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L23" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M23" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N23" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O23" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P23" t="n">
         <v>282.8933354707561</v>
@@ -32739,7 +32739,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T23" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U23" t="n">
         <v>0.1573801815885499</v>
@@ -32788,7 +32788,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J24" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K24" t="n">
         <v>169.9674178896793</v>
@@ -32803,10 +32803,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O24" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P24" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q24" t="n">
         <v>134.3599894141626</v>
@@ -32818,7 +32818,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T24" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U24" t="n">
         <v>0.06924820784814596</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H25" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I25" t="n">
         <v>26.537426869439</v>
@@ -32882,13 +32882,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O25" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P25" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R25" t="n">
         <v>39.67778515605961</v>
@@ -32900,7 +32900,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I26" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J26" t="n">
         <v>166.9680773387651</v>
@@ -32952,16 +32952,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L26" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M26" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N26" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O26" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P26" t="n">
         <v>282.8933354707561</v>
@@ -32976,7 +32976,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T26" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U26" t="n">
         <v>0.1573801815885499</v>
@@ -33025,7 +33025,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J27" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K27" t="n">
         <v>169.9674178896793</v>
@@ -33040,10 +33040,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O27" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P27" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q27" t="n">
         <v>134.3599894141626</v>
@@ -33055,7 +33055,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T27" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U27" t="n">
         <v>0.06924820784814596</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H28" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I28" t="n">
         <v>26.537426869439</v>
@@ -33119,13 +33119,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O28" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P28" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R28" t="n">
         <v>39.67778515605961</v>
@@ -33137,7 +33137,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I29" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J29" t="n">
         <v>166.9680773387651</v>
@@ -33189,16 +33189,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L29" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M29" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N29" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O29" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P29" t="n">
         <v>282.8933354707561</v>
@@ -33213,7 +33213,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T29" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U29" t="n">
         <v>0.1573801815885499</v>
@@ -33262,7 +33262,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J30" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K30" t="n">
         <v>169.9674178896793</v>
@@ -33277,10 +33277,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O30" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P30" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q30" t="n">
         <v>134.3599894141626</v>
@@ -33292,7 +33292,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T30" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U30" t="n">
         <v>0.06924820784814596</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H31" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I31" t="n">
         <v>26.537426869439</v>
@@ -33356,13 +33356,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O31" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P31" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R31" t="n">
         <v>39.67778515605961</v>
@@ -33374,7 +33374,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I32" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J32" t="n">
         <v>166.9680773387651</v>
@@ -33426,16 +33426,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L32" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M32" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N32" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O32" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P32" t="n">
         <v>282.8933354707561</v>
@@ -33450,7 +33450,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T32" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U32" t="n">
         <v>0.1573801815885499</v>
@@ -33499,7 +33499,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J33" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K33" t="n">
         <v>169.9674178896793</v>
@@ -33514,10 +33514,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O33" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P33" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q33" t="n">
         <v>134.3599894141626</v>
@@ -33529,7 +33529,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T33" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U33" t="n">
         <v>0.06924820784814596</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H34" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I34" t="n">
         <v>26.537426869439</v>
@@ -33593,13 +33593,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P34" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R34" t="n">
         <v>39.67778515605961</v>
@@ -33611,7 +33611,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I35" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J35" t="n">
         <v>166.9680773387651</v>
@@ -33663,16 +33663,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L35" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M35" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N35" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O35" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P35" t="n">
         <v>282.8933354707561</v>
@@ -33687,7 +33687,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T35" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U35" t="n">
         <v>0.1573801815885499</v>
@@ -33736,7 +33736,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J36" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K36" t="n">
         <v>169.9674178896793</v>
@@ -33751,10 +33751,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O36" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P36" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q36" t="n">
         <v>134.3599894141626</v>
@@ -33766,7 +33766,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T36" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U36" t="n">
         <v>0.06924820784814596</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H37" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I37" t="n">
         <v>26.537426869439</v>
@@ -33830,13 +33830,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O37" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P37" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R37" t="n">
         <v>39.67778515605961</v>
@@ -33848,7 +33848,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I38" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J38" t="n">
         <v>166.9680773387651</v>
@@ -33900,16 +33900,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L38" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M38" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N38" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O38" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P38" t="n">
         <v>282.8933354707561</v>
@@ -33924,7 +33924,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T38" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U38" t="n">
         <v>0.1573801815885499</v>
@@ -33973,7 +33973,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J39" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K39" t="n">
         <v>169.9674178896793</v>
@@ -33988,10 +33988,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O39" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P39" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q39" t="n">
         <v>134.3599894141626</v>
@@ -34003,7 +34003,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T39" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U39" t="n">
         <v>0.06924820784814596</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H40" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I40" t="n">
         <v>26.537426869439</v>
@@ -34067,13 +34067,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O40" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P40" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R40" t="n">
         <v>39.67778515605961</v>
@@ -34085,7 +34085,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I41" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J41" t="n">
         <v>166.9680773387651</v>
@@ -34137,16 +34137,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L41" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M41" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N41" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O41" t="n">
-        <v>331.4598758828477</v>
+        <v>331.4598758828478</v>
       </c>
       <c r="P41" t="n">
         <v>282.8933354707561</v>
@@ -34161,7 +34161,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T41" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U41" t="n">
         <v>0.1573801815885499</v>
@@ -34210,7 +34210,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J42" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K42" t="n">
         <v>169.9674178896793</v>
@@ -34225,10 +34225,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O42" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P42" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q42" t="n">
         <v>134.3599894141626</v>
@@ -34240,7 +34240,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T42" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U42" t="n">
         <v>0.06924820784814596</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H43" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I43" t="n">
         <v>26.537426869439</v>
@@ -34304,13 +34304,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O43" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P43" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R43" t="n">
         <v>39.67778515605961</v>
@@ -34322,7 +34322,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>20.14712230867172</v>
       </c>
       <c r="I44" t="n">
-        <v>75.84249313365785</v>
+        <v>75.84249313365724</v>
       </c>
       <c r="J44" t="n">
         <v>166.9680773387651</v>
@@ -34374,16 +34374,16 @@
         <v>250.2418659218066</v>
       </c>
       <c r="L44" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754391</v>
       </c>
       <c r="M44" t="n">
         <v>345.4322851295062</v>
       </c>
       <c r="N44" t="n">
-        <v>351.021740641237</v>
+        <v>351.0217406412371</v>
       </c>
       <c r="O44" t="n">
-        <v>331.4598758828477</v>
+        <v>331.459875882848</v>
       </c>
       <c r="P44" t="n">
         <v>282.8933354707561</v>
@@ -34398,7 +34398,7 @@
         <v>44.82876109936358</v>
       </c>
       <c r="T44" t="n">
-        <v>8.611646811298472</v>
+        <v>8.611646811298474</v>
       </c>
       <c r="U44" t="n">
         <v>0.1573801815885499</v>
@@ -34447,7 +34447,7 @@
         <v>36.23989544052971</v>
       </c>
       <c r="J45" t="n">
-        <v>99.44504301712745</v>
+        <v>99.44504301712746</v>
       </c>
       <c r="K45" t="n">
         <v>169.9674178896793</v>
@@ -34462,10 +34462,10 @@
         <v>273.7566318124804</v>
       </c>
       <c r="O45" t="n">
-        <v>250.4338354092248</v>
+        <v>250.4338354092249</v>
       </c>
       <c r="P45" t="n">
-        <v>200.9952315528385</v>
+        <v>200.9952315528386</v>
       </c>
       <c r="Q45" t="n">
         <v>134.3599894141626</v>
@@ -34477,7 +34477,7 @@
         <v>19.55107734912652</v>
       </c>
       <c r="T45" t="n">
-        <v>4.242606867496406</v>
+        <v>4.242606867496407</v>
       </c>
       <c r="U45" t="n">
         <v>0.06924820784814596</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.882441643179652</v>
       </c>
       <c r="H46" t="n">
-        <v>7.845708427542728</v>
+        <v>7.845708427542729</v>
       </c>
       <c r="I46" t="n">
         <v>26.537426869439</v>
@@ -34541,13 +34541,13 @@
         <v>135.0376379967554</v>
       </c>
       <c r="O46" t="n">
-        <v>124.7291151650657</v>
+        <v>124.7291151650658</v>
       </c>
       <c r="P46" t="n">
         <v>106.7273056442008</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.89245432116158</v>
+        <v>73.89245432116159</v>
       </c>
       <c r="R46" t="n">
         <v>39.67778515605961</v>
@@ -34559,7 +34559,7 @@
         <v>3.770432475403966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04813318053707197</v>
+        <v>0.04813318053707198</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J11" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K11" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L11" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M11" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N11" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O11" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P11" t="n">
         <v>245.3179736605248</v>
@@ -35433,7 +35433,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R11" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.76175701821843</v>
+        <v>20.06750869052971</v>
       </c>
       <c r="J12" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379414</v>
       </c>
       <c r="K12" t="n">
-        <v>300.2273322134187</v>
+        <v>430.4422878995973</v>
       </c>
       <c r="L12" t="n">
-        <v>206.0270819206014</v>
+        <v>206.0270819206015</v>
       </c>
       <c r="M12" t="n">
         <v>243.6011506468314</v>
       </c>
       <c r="N12" t="n">
-        <v>252.4136035989387</v>
+        <v>252.4136035989388</v>
       </c>
       <c r="O12" t="n">
-        <v>227.2619456870026</v>
+        <v>227.2619456870027</v>
       </c>
       <c r="P12" t="n">
         <v>179.2243903480099</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.6129511251841</v>
+        <v>111.6129511251842</v>
       </c>
       <c r="R12" t="n">
-        <v>148.1996299842369</v>
+        <v>41.67892262574615</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K13" t="n">
-        <v>81.55902009125117</v>
+        <v>81.5590200912512</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4670474620818</v>
+        <v>109.2762458548445</v>
       </c>
       <c r="M13" t="n">
         <v>528.1963979991084</v>
       </c>
       <c r="N13" t="n">
-        <v>114.288737021155</v>
+        <v>244.4760869921136</v>
       </c>
       <c r="O13" t="n">
-        <v>470.9505287862114</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P13" t="n">
-        <v>84.34650498621428</v>
+        <v>400.2618631410705</v>
       </c>
       <c r="Q13" t="n">
         <v>202.1754141603151</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J14" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K14" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L14" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M14" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N14" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O14" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P14" t="n">
         <v>245.3179736605248</v>
@@ -35670,7 +35670,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R14" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J15" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379414</v>
       </c>
       <c r="K15" t="n">
-        <v>147.5681840563459</v>
+        <v>147.568184056346</v>
       </c>
       <c r="L15" t="n">
-        <v>488.9011857638534</v>
+        <v>206.0270819206015</v>
       </c>
       <c r="M15" t="n">
         <v>243.6011506468314</v>
       </c>
       <c r="N15" t="n">
-        <v>252.4136035989387</v>
+        <v>405.0727517560111</v>
       </c>
       <c r="O15" t="n">
-        <v>227.2619456870026</v>
+        <v>227.2619456870027</v>
       </c>
       <c r="P15" t="n">
         <v>179.2243903480099</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.6129511251841</v>
+        <v>111.6129511251842</v>
       </c>
       <c r="R15" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889954</v>
       </c>
       <c r="K16" t="n">
-        <v>331.3394333377381</v>
+        <v>81.5590200912512</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4670474620818</v>
+        <v>306.2280191685573</v>
       </c>
       <c r="M16" t="n">
-        <v>397.9856510600893</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="N16" t="n">
         <v>516.3421944371955</v>
       </c>
       <c r="O16" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P16" t="n">
-        <v>84.34650498621428</v>
+        <v>84.3465049862143</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.27289155637663</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J17" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K17" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L17" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M17" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N17" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O17" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P17" t="n">
         <v>245.3179736605248</v>
@@ -35907,7 +35907,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R17" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>20.06750869052971</v>
       </c>
       <c r="J18" t="n">
-        <v>78.83392868379411</v>
+        <v>361.708032527046</v>
       </c>
       <c r="K18" t="n">
         <v>147.5681840563459</v>
@@ -35983,7 +35983,7 @@
         <v>179.2243903480099</v>
       </c>
       <c r="Q18" t="n">
-        <v>394.4870549684363</v>
+        <v>111.6129511251841</v>
       </c>
       <c r="R18" t="n">
         <v>41.67892262574614</v>
@@ -36050,19 +36050,19 @@
         <v>489.4670474620818</v>
       </c>
       <c r="M19" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="N19" t="n">
-        <v>114.288737021155</v>
+        <v>386.1314474981764</v>
       </c>
       <c r="O19" t="n">
-        <v>483.7474269628062</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P19" t="n">
-        <v>387.1168153908767</v>
+        <v>84.34650498621428</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.27289155637663</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J20" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K20" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L20" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M20" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N20" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O20" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P20" t="n">
         <v>245.3179736605248</v>
@@ -36144,7 +36144,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R20" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>20.06750869052971</v>
       </c>
       <c r="J21" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379414</v>
       </c>
       <c r="K21" t="n">
-        <v>147.5681840563459</v>
+        <v>430.4422878995973</v>
       </c>
       <c r="L21" t="n">
-        <v>206.0270819206014</v>
+        <v>206.0270819206015</v>
       </c>
       <c r="M21" t="n">
         <v>243.6011506468314</v>
       </c>
       <c r="N21" t="n">
-        <v>252.4136035989387</v>
+        <v>252.4136035989388</v>
       </c>
       <c r="O21" t="n">
-        <v>227.2619456870026</v>
+        <v>227.2619456870027</v>
       </c>
       <c r="P21" t="n">
-        <v>355.5777868327713</v>
+        <v>179.2243903480099</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.6129511251841</v>
+        <v>111.6129511251842</v>
       </c>
       <c r="R21" t="n">
-        <v>148.1996299842369</v>
+        <v>41.67892262574615</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>85.80111889867344</v>
+        <v>120.4606728840721</v>
       </c>
       <c r="K22" t="n">
-        <v>81.55902009125117</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L22" t="n">
-        <v>109.2762458548445</v>
+        <v>489.4670474620819</v>
       </c>
       <c r="M22" t="n">
-        <v>528.1963979991083</v>
+        <v>418.5216091799646</v>
       </c>
       <c r="N22" t="n">
-        <v>516.3421944371955</v>
+        <v>114.288737021155</v>
       </c>
       <c r="O22" t="n">
         <v>483.7474269628062</v>
       </c>
       <c r="P22" t="n">
-        <v>84.34650498621428</v>
+        <v>84.3465049862143</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J23" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K23" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L23" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M23" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N23" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O23" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P23" t="n">
         <v>245.3179736605248</v>
@@ -36381,7 +36381,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R23" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J24" t="n">
-        <v>78.83392868379411</v>
+        <v>231.4930768408666</v>
       </c>
       <c r="K24" t="n">
         <v>147.5681840563459</v>
@@ -36445,7 +36445,7 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M24" t="n">
-        <v>526.4752544900836</v>
+        <v>243.6011506468314</v>
       </c>
       <c r="N24" t="n">
         <v>252.4136035989387</v>
@@ -36460,7 +36460,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R24" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889952</v>
       </c>
       <c r="K25" t="n">
-        <v>81.55902009125117</v>
+        <v>81.55902009125118</v>
       </c>
       <c r="L25" t="n">
-        <v>324.0489555423338</v>
+        <v>306.2280191685577</v>
       </c>
       <c r="M25" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991085</v>
       </c>
       <c r="N25" t="n">
         <v>516.3421944371955</v>
@@ -36533,10 +36533,10 @@
         <v>483.7474269628062</v>
       </c>
       <c r="P25" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621428</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.27289155637663</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J26" t="n">
-        <v>137.5481178531787</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K26" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L26" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M26" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N26" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O26" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P26" t="n">
         <v>245.3179736605248</v>
@@ -36618,7 +36618,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R26" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J27" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379413</v>
       </c>
       <c r="K27" t="n">
         <v>147.5681840563459</v>
       </c>
       <c r="L27" t="n">
-        <v>206.0270819206014</v>
+        <v>358.6862300776739</v>
       </c>
       <c r="M27" t="n">
         <v>243.6011506468314</v>
@@ -36691,7 +36691,7 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P27" t="n">
-        <v>355.5777868327713</v>
+        <v>179.2243903480099</v>
       </c>
       <c r="Q27" t="n">
         <v>111.6129511251841</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889952</v>
       </c>
       <c r="K28" t="n">
-        <v>331.3394333377381</v>
+        <v>81.55902009125118</v>
       </c>
       <c r="L28" t="n">
         <v>489.4670474620818</v>
       </c>
       <c r="M28" t="n">
-        <v>331.2212277173348</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="N28" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371955</v>
       </c>
       <c r="O28" t="n">
-        <v>102.2299276666413</v>
+        <v>300.5083986692813</v>
       </c>
       <c r="P28" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621428</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J29" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K29" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L29" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M29" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N29" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O29" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268234</v>
       </c>
       <c r="P29" t="n">
         <v>245.3179736605248</v>
@@ -36855,7 +36855,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R29" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.76175701821843</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J30" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379413</v>
       </c>
       <c r="K30" t="n">
         <v>147.5681840563459</v>
@@ -36925,16 +36925,16 @@
         <v>252.4136035989387</v>
       </c>
       <c r="O30" t="n">
-        <v>486.441801202566</v>
+        <v>227.2619456870026</v>
       </c>
       <c r="P30" t="n">
         <v>179.2243903480099</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.6129511251841</v>
+        <v>264.2720992822566</v>
       </c>
       <c r="R30" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>41.75186818889952</v>
       </c>
       <c r="K31" t="n">
-        <v>125.6082708010254</v>
+        <v>81.55902009125118</v>
       </c>
       <c r="L31" t="n">
-        <v>109.2762458548445</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M31" t="n">
-        <v>528.1963979991084</v>
+        <v>344.9573697055833</v>
       </c>
       <c r="N31" t="n">
         <v>516.3421944371955</v>
@@ -37010,7 +37010,7 @@
         <v>84.34650498621428</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531783</v>
       </c>
       <c r="K32" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L32" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M32" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N32" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O32" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P32" t="n">
         <v>245.3179736605248</v>
@@ -37092,7 +37092,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R32" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.76175701821843</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J33" t="n">
-        <v>78.83392868379411</v>
+        <v>231.4930768408666</v>
       </c>
       <c r="K33" t="n">
         <v>147.5681840563459</v>
@@ -37159,7 +37159,7 @@
         <v>243.6011506468314</v>
       </c>
       <c r="N33" t="n">
-        <v>511.5934591145022</v>
+        <v>252.4136035989387</v>
       </c>
       <c r="O33" t="n">
         <v>227.2619456870026</v>
@@ -37171,7 +37171,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R33" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>41.75186818889952</v>
       </c>
       <c r="K34" t="n">
-        <v>81.55902009125117</v>
+        <v>81.55902009125118</v>
       </c>
       <c r="L34" t="n">
-        <v>109.2762458548445</v>
+        <v>402.7577602375064</v>
       </c>
       <c r="M34" t="n">
-        <v>256.3302905540265</v>
+        <v>115.7512987753027</v>
       </c>
       <c r="N34" t="n">
         <v>516.3421944371955</v>
@@ -37247,7 +37247,7 @@
         <v>400.2618631410705</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J35" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K35" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L35" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M35" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N35" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O35" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P35" t="n">
         <v>245.3179736605248</v>
@@ -37329,7 +37329,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R35" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.06750869052971</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J36" t="n">
-        <v>78.83392868379411</v>
+        <v>78.83392868379413</v>
       </c>
       <c r="K36" t="n">
-        <v>430.4422878995982</v>
+        <v>147.5681840563459</v>
       </c>
       <c r="L36" t="n">
         <v>206.0270819206014</v>
@@ -37396,7 +37396,7 @@
         <v>243.6011506468314</v>
       </c>
       <c r="N36" t="n">
-        <v>252.4136035989387</v>
+        <v>405.0727517560112</v>
       </c>
       <c r="O36" t="n">
         <v>227.2619456870026</v>
@@ -37408,7 +37408,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R36" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>331.3394333377381</v>
       </c>
       <c r="L37" t="n">
-        <v>206.3537779191243</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M37" t="n">
-        <v>528.1963979991084</v>
+        <v>115.7512987753027</v>
       </c>
       <c r="N37" t="n">
-        <v>516.3421944371955</v>
+        <v>114.288737021155</v>
       </c>
       <c r="O37" t="n">
-        <v>102.2299276666413</v>
+        <v>317.6998566086737</v>
       </c>
       <c r="P37" t="n">
-        <v>84.34650498621428</v>
+        <v>400.2618631410705</v>
       </c>
       <c r="Q37" t="n">
         <v>202.1754141603151</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J38" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K38" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L38" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M38" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N38" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O38" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P38" t="n">
         <v>245.3179736605248</v>
@@ -37566,7 +37566,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R38" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.76175701821843</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J39" t="n">
-        <v>338.0137841993576</v>
+        <v>231.4930768408666</v>
       </c>
       <c r="K39" t="n">
         <v>147.5681840563459</v>
@@ -37645,7 +37645,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R39" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>41.75186818889952</v>
       </c>
       <c r="K40" t="n">
-        <v>81.55902009125117</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L40" t="n">
         <v>489.4670474620818</v>
@@ -37712,16 +37712,16 @@
         <v>528.1963979991084</v>
       </c>
       <c r="N40" t="n">
-        <v>245.8027846810414</v>
+        <v>464.8402521933489</v>
       </c>
       <c r="O40" t="n">
         <v>102.2299276666413</v>
       </c>
       <c r="P40" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621428</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J41" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K41" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L41" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M41" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N41" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O41" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268237</v>
       </c>
       <c r="P41" t="n">
         <v>245.3179736605248</v>
@@ -37803,7 +37803,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R41" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.76175701821843</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J42" t="n">
-        <v>338.0137841993576</v>
+        <v>231.4930768408666</v>
       </c>
       <c r="K42" t="n">
         <v>147.5681840563459</v>
@@ -37882,7 +37882,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R42" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>331.3394333377381</v>
       </c>
       <c r="L43" t="n">
-        <v>292.4918771803088</v>
+        <v>292.4918771803086</v>
       </c>
       <c r="M43" t="n">
         <v>528.1963979991084</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.29459058969436</v>
+        <v>41.29459058969374</v>
       </c>
       <c r="J44" t="n">
-        <v>137.5481178531785</v>
+        <v>137.5481178531786</v>
       </c>
       <c r="K44" t="n">
         <v>214.4772651269973</v>
       </c>
       <c r="L44" t="n">
-        <v>272.135120142816</v>
+        <v>272.1351201428161</v>
       </c>
       <c r="M44" t="n">
-        <v>308.0010222300743</v>
+        <v>308.0010222300744</v>
       </c>
       <c r="N44" t="n">
-        <v>313.742117806791</v>
+        <v>313.7421178067911</v>
       </c>
       <c r="O44" t="n">
-        <v>294.0689165268236</v>
+        <v>294.0689165268239</v>
       </c>
       <c r="P44" t="n">
         <v>245.3179736605248</v>
@@ -38040,7 +38040,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R44" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160055</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.76175701821843</v>
+        <v>43.76175701821845</v>
       </c>
       <c r="J45" t="n">
-        <v>78.83392868379411</v>
+        <v>231.4930768408666</v>
       </c>
       <c r="K45" t="n">
         <v>147.5681840563459</v>
@@ -38110,7 +38110,7 @@
         <v>252.4136035989387</v>
       </c>
       <c r="O45" t="n">
-        <v>486.441801202566</v>
+        <v>227.2619456870026</v>
       </c>
       <c r="P45" t="n">
         <v>179.2243903480099</v>
@@ -38119,7 +38119,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R45" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842369</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889952</v>
       </c>
       <c r="K46" t="n">
-        <v>134.3642630559651</v>
+        <v>81.55902009125118</v>
       </c>
       <c r="L46" t="n">
-        <v>489.4670474620818</v>
+        <v>109.2762458548445</v>
       </c>
       <c r="M46" t="n">
-        <v>528.1963979991084</v>
+        <v>409.2328131579651</v>
       </c>
       <c r="N46" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371955</v>
       </c>
       <c r="O46" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P46" t="n">
         <v>400.2618631410705</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637665</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
